--- a/installation/ИсторияОтправлений.xlsx
+++ b/installation/ИсторияОтправлений.xlsx
@@ -47,8 +47,11 @@
       <diagonal/>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <bottom style="medium">
-        <color rgb="00ff0000"/>
+        <color rgb="00000000"/>
       </bottom>
     </border>
   </borders>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +444,7 @@
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,35 +455,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>№ Отправления</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Клиент</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>От клиента</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Дата отправления</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Клиенту</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Количество изделий</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Изделия</t>
         </is>
